--- a/exports/guias_sesion_20250808.xlsx
+++ b/exports/guias_sesion_20250808.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,71 +463,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TBA323038429030</t>
+          <t>TBA323121451756</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOG0011142618</t>
+          <t>BOG0011142986</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NO ESCANEADO</t>
+          <t>NO RECIBIDO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-07 19:47:01</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOG0011142645</t>
+          <t>TBA323119682119</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BOG0011142997</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-08-07 19:43:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NO ESPERADO</t>
+          <t>NO RECIBIDO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-07 19:43:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TBA323121451756</t>
+          <t>TBA323098427821</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOG0011142986</t>
+          <t>BOG0011142963</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -537,24 +537,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TBA323119682119</t>
+          <t>TBA323098408870</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOG0011142997</t>
+          <t>BOG0011142965</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -564,24 +564,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TBA323098427821</t>
+          <t>TBA323098354329</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOG0011142963</t>
+          <t>BOG0011142951</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -591,24 +591,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TBA323098408870</t>
+          <t>TBA323098196734</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOG0011142965</t>
+          <t>BOG0011142955</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -618,24 +618,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TBA323098354329</t>
+          <t>TBA323098175547</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOG0011142951</t>
+          <t>BOG0011142962</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -645,24 +645,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TBA323098196734</t>
+          <t>TBA323096312137</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOG0011142955</t>
+          <t>BOG0011143002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -672,24 +672,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TBA323098175547</t>
+          <t>TBA323096042734</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOG0011142962</t>
+          <t>BOG0011142912</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -699,24 +699,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TBA323096312137</t>
+          <t>TBA323094564948</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOG0011143002</t>
+          <t>BOG0011142893</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -726,24 +726,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TBA323096042734</t>
+          <t>TBA323088149841</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOG0011142912</t>
+          <t>BOG0011142930</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -753,24 +753,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TBA323094564948</t>
+          <t>TBA323087094055</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOG0011142893</t>
+          <t>BOG0011142940</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -780,24 +780,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TBA323088149841</t>
+          <t>TBA323086788090</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOG0011142930</t>
+          <t>BOG0011142957</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -807,24 +807,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TBA323087094055</t>
+          <t>TBA323086407252</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOG0011142940</t>
+          <t>BOG0011142954</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -834,24 +834,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TBA323086788090</t>
+          <t>TBA323086147012</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOG0011142957</t>
+          <t>BOG0011142959</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -861,24 +861,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TBA323086407252</t>
+          <t>TBA323086107431</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOG0011142954</t>
+          <t>BOG0011142886</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -888,24 +888,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TBA323086147012</t>
+          <t>TBA323086047239</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOG0011142959</t>
+          <t>BOG0011142926</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -915,24 +915,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TBA323086107431</t>
+          <t>TBA323085896044</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOG0011142886</t>
+          <t>BOG0011142968</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -942,24 +942,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TBA323086047239</t>
+          <t>TBA323085574582</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOG0011142926</t>
+          <t>BOG0011142960</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -969,24 +969,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TBA323085896044</t>
+          <t>TBA323085552381</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOG0011142968</t>
+          <t>BOG0011142905</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -996,24 +996,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TBA323085574582</t>
+          <t>TBA323079856372</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOG0011142960</t>
+          <t>BOG0011142843</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1023,24 +1023,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TBA323085552381</t>
+          <t>TBA323079830678</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOG0011142905</t>
+          <t>BOG0011142939</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1050,24 +1050,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TBA323079856372</t>
+          <t>TBA323079192344</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOG0011142843</t>
+          <t>BOG0011142845</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1077,24 +1077,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TBA323079830678</t>
+          <t>TBA323079103133</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOG0011142939</t>
+          <t>BOG0011142952</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1104,24 +1104,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TBA323079192344</t>
+          <t>TBA323078858716</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOG0011142845</t>
+          <t>BOG0011142934</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1131,24 +1131,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TBA323079103133</t>
+          <t>TBA323078134959</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOG0011142952</t>
+          <t>BOG0011142933</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1158,24 +1158,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TBA323078858716</t>
+          <t>TBA323076853839</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOG0011142934</t>
+          <t>BOG0011142937</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1185,24 +1185,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TBA323078134959</t>
+          <t>TBA323074861015</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOG0011142933</t>
+          <t>BOG0011142953</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1212,24 +1212,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TBA323076853839</t>
+          <t>TBA323073407805</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOG0011142937</t>
+          <t>BOG0011142938</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1239,24 +1239,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TBA323074861015</t>
+          <t>TBA323073116420</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOG0011142953</t>
+          <t>BOG0011142976</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1266,24 +1266,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TBA323073407805</t>
+          <t>TBA323071837440</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOG0011142938</t>
+          <t>BOG0011142966</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1293,24 +1293,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TBA323073116420</t>
+          <t>TBA323071578041</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BOG0011142976</t>
+          <t>BOG0011142942</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1320,24 +1320,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TBA323071837440</t>
+          <t>TBA323071019079</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BOG0011142966</t>
+          <t>BOG0011142802</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1347,24 +1347,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TBA323071578041</t>
+          <t>TBA323070013397</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BOG0011142942</t>
+          <t>BOG0011142800</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1374,24 +1374,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TBA323071019079</t>
+          <t>TBA323068851911</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BOG0011142802</t>
+          <t>BOG0011142935</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1401,24 +1401,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TBA323070013397</t>
+          <t>TBA323068796349</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BOG0011142800</t>
+          <t>BOG0011142795</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1428,24 +1428,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TBA323068851911</t>
+          <t>TBA323068278341</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BOG0011142935</t>
+          <t>BOG0011142775</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1455,24 +1455,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TBA323068796349</t>
+          <t>TBA323068014565</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BOG0011142795</t>
+          <t>BOG0011142878</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1482,24 +1482,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TBA323068278341</t>
+          <t>TBA323067752726</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BOG0011142775</t>
+          <t>BOG0011142784</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1509,24 +1509,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TBA323068014565</t>
+          <t>TBA323067483217</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BOG0011142878</t>
+          <t>BOG0011142791</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1536,24 +1536,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TBA323067752726</t>
+          <t>TBA323067481425</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BOG0011142784</t>
+          <t>BOG0011142731</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1563,24 +1563,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TBA323067483217</t>
+          <t>TBA323067379935</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BOG0011142791</t>
+          <t>BOG0011142733</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1590,24 +1590,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TBA323067481425</t>
+          <t>TBA323067215546</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BOG0011142731</t>
+          <t>BOG0011142724</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1617,24 +1617,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TBA323067379935</t>
+          <t>TBA323066955577</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BOG0011142733</t>
+          <t>BOG0011142932</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1644,24 +1644,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TBA323067215546</t>
+          <t>TBA323065748432</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BOG0011142724</t>
+          <t>BOG0011142943</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1671,24 +1671,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TBA323066955577</t>
+          <t>TBA323065514270</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BOG0011142932</t>
+          <t>BOG0011142769</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1698,24 +1698,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TBA323065748432</t>
+          <t>TBA323065354447</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BOG0011142943</t>
+          <t>BOG0011142788</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1725,24 +1725,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TBA323065514270</t>
+          <t>TBA323065189260</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BOG0011142769</t>
+          <t>BOG0011142716</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1752,24 +1752,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TBA323065354447</t>
+          <t>TBA323064949443</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BOG0011142788</t>
+          <t>BOG0011142740</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1779,24 +1779,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TBA323065189260</t>
+          <t>TBA323064833422</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BOG0011142716</t>
+          <t>BOG0011142721</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1806,24 +1806,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TBA323064949443</t>
+          <t>TBA323064773485</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BOG0011142740</t>
+          <t>BOG0011142785</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1833,24 +1833,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TBA323064833422</t>
+          <t>TBA323064442166</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BOG0011142721</t>
+          <t>BOG0011142794</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1860,24 +1860,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TBA323064773485</t>
+          <t>TBA323060264752</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BOG0011142785</t>
+          <t>BOG0011142778</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1887,24 +1887,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TBA323064442166</t>
+          <t>TBA323060200298</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BOG0011142794</t>
+          <t>BOG0011142782</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1914,24 +1914,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TBA323060264752</t>
+          <t>TBA323060175410</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BOG0011142778</t>
+          <t>BOG0011142803</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1941,24 +1941,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TBA323060200298</t>
+          <t>TBA323060080360</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BOG0011142782</t>
+          <t>BOG0011142936</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1968,24 +1968,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TBA323060175410</t>
+          <t>TBA323059932389</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BOG0011142803</t>
+          <t>BOG0011142735</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1995,24 +1995,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TBA323060080360</t>
+          <t>TBA323056168803</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BOG0011142936</t>
+          <t>BOG0011142790</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2022,24 +2022,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TBA323059932389</t>
+          <t>TBA323054173890</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BOG0011142735</t>
+          <t>BOG0011142797</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2049,24 +2049,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TBA323056168803</t>
+          <t>TBA323054042345</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BOG0011142790</t>
+          <t>BOG0011142792</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2076,24 +2076,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TBA323054173890</t>
+          <t>TBA323051817440</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BOG0011142797</t>
+          <t>BOG0011142779</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2103,24 +2103,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TBA323054042345</t>
+          <t>TBA323050760089</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BOG0011142792</t>
+          <t>BOG0011142804</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2130,24 +2130,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TBA323051817440</t>
+          <t>TBA323050436599</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BOG0011142779</t>
+          <t>BOG0011142548</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2157,24 +2157,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TBA323050760089</t>
+          <t>TBA323050306127</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BOG0011142804</t>
+          <t>BOG0011142635</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2184,24 +2184,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TBA323050436599</t>
+          <t>TBA323049275611</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BOG0011142548</t>
+          <t>BOG0011142801</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2211,24 +2211,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TBA323050306127</t>
+          <t>TBA323048756559</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BOG0011142635</t>
+          <t>BOG0011142789</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2238,24 +2238,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TBA323049275611</t>
+          <t>TBA323047725294</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BOG0011142801</t>
+          <t>BOG0011142627</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2265,24 +2265,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TBA323048756559</t>
+          <t>TBA323047693856</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BOG0011142789</t>
+          <t>BOG0011142737</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2292,24 +2292,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TBA323047725294</t>
+          <t>TBA323046640835</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BOG0011142627</t>
+          <t>BOG0011142781</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2319,24 +2319,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TBA323047693856</t>
+          <t>TBA323046489893</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BOG0011142737</t>
+          <t>BOG0011142639</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2346,24 +2346,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TBA323046640835</t>
+          <t>TBA323046215869</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BOG0011142781</t>
+          <t>BOG0011142646</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2373,24 +2373,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TBA323046489893</t>
+          <t>TBA323045835654</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BOG0011142639</t>
+          <t>BOG0011142614</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2400,24 +2400,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TBA323046215869</t>
+          <t>TBA323045525229</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BOG0011142646</t>
+          <t>BOG0011142592</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2427,24 +2427,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TBA323045835654</t>
+          <t>TBA323045331849</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BOG0011142614</t>
+          <t>BOG0011142640</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2454,24 +2454,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TBA323045525229</t>
+          <t>TBA323044998566</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BOG0011142592</t>
+          <t>BOG0011142642</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2481,24 +2481,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TBA323045331849</t>
+          <t>TBA323044603885</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BOG0011142640</t>
+          <t>BOG0011142616</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2508,24 +2508,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TBA323044998566</t>
+          <t>TBA323044225455</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BOG0011142642</t>
+          <t>BOG0011142624</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2535,24 +2535,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TBA323044603885</t>
+          <t>TBA323043605568</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BOG0011142616</t>
+          <t>BOG0011142605</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2562,24 +2562,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TBA323044225455</t>
+          <t>TBA323043552239</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BOG0011142624</t>
+          <t>BOG0011142691</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2589,24 +2589,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TBA323043605568</t>
+          <t>TBA323043396001</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BOG0011142605</t>
+          <t>BOG0011142641</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2616,24 +2616,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TBA323043552239</t>
+          <t>TBA323042863218</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BOG0011142691</t>
+          <t>BOG0011142608</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2643,24 +2643,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TBA323043396001</t>
+          <t>TBA323042358097</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BOG0011142641</t>
+          <t>BOG0011142771</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2670,24 +2670,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TBA323042863218</t>
+          <t>TBA323041521274</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BOG0011142608</t>
+          <t>BOG0011142780</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2697,24 +2697,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TBA323042358097</t>
+          <t>TBA323041079098</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BOG0011142771</t>
+          <t>BOG0011142591</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2724,24 +2724,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TBA323041521274</t>
+          <t>TBA323040906555</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BOG0011142780</t>
+          <t>BOG0011142622</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2751,24 +2751,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TBA323041079098</t>
+          <t>TBA323040840858</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BOG0011142591</t>
+          <t>BOG0011142770</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2778,24 +2778,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TBA323040906555</t>
+          <t>TBA323040511974</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BOG0011142622</t>
+          <t>BOG0011142765</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2805,24 +2805,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TBA323040840858</t>
+          <t>TBA323040436706</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BOG0011142770</t>
+          <t>BOG0011142643</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2832,24 +2832,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TBA323040511974</t>
+          <t>TBA323040228272</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BOG0011142765</t>
+          <t>BOG0011142621</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2859,24 +2859,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TBA323040436706</t>
+          <t>TBA323039982955</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BOG0011142643</t>
+          <t>BOG0011142607</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2886,24 +2886,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TBA323040228272</t>
+          <t>TBA323039927821</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BOG0011142621</t>
+          <t>BOG0011142663</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2913,24 +2913,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TBA323039982955</t>
+          <t>TBA323039720003</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BOG0011142607</t>
+          <t>BOG0011142571</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2940,24 +2940,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TBA323039927821</t>
+          <t>TBA323039687648</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BOG0011142663</t>
+          <t>BOG0011142623</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2967,24 +2967,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TBA323039720003</t>
+          <t>TBA323039654387</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BOG0011142571</t>
+          <t>BOG0011142777</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2994,24 +2994,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TBA323039687648</t>
+          <t>TBA323039441832</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BOG0011142623</t>
+          <t>BOG0011142787</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3021,24 +3021,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TBA323039654387</t>
+          <t>TBA323039355408</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BOG0011142777</t>
+          <t>BOG0011142774</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3048,24 +3048,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TBA323039441832</t>
+          <t>TBA323039298468</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BOG0011142787</t>
+          <t>BOG0011142617</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3075,24 +3075,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TBA323039355408</t>
+          <t>TBA323039084420</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BOG0011142774</t>
+          <t>BOG0011142625</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3102,24 +3102,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TBA323039298468</t>
+          <t>TBA323039003113</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BOG0011142617</t>
+          <t>BOG0011142647</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3129,24 +3129,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TBA323039084420</t>
+          <t>TBA323038796730</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BOG0011142625</t>
+          <t>BOG0011142633</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3156,24 +3156,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TBA323039003113</t>
+          <t>TBA323038688439</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BOG0011142647</t>
+          <t>BOG0011142648</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3183,24 +3183,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TBA323038796730</t>
+          <t>TBA323038545754</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BOG0011142633</t>
+          <t>BOG0011142620</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3210,24 +3210,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TBA323038688439</t>
+          <t>TBA323038429030</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BOG0011142648</t>
+          <t>BOG0011142618</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3237,24 +3237,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TBA323038545754</t>
+          <t>TBA323037911002</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BOG0011142620</t>
+          <t>BOG0011142645</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-08-07 15:49:19</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3264,34 +3264,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2025-08-07 19:42:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>TBA323037911002</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>BOG0011142645</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2025-08-07 15:49:19</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>NO RECIBIDO</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2025-08-07 19:42:10</t>
+          <t>2025-08-08 15:17:58</t>
         </is>
       </c>
     </row>
